--- a/doc/fund.xlsx
+++ b/doc/fund.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="fund" sheetId="1" r:id="rId1"/>
+    <sheet name="share" sheetId="2" r:id="rId2"/>
+    <sheet name="count" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="198">
   <si>
     <t>上投摩根核心成长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -807,6 +808,10 @@
   </si>
   <si>
     <t>300027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1178,7 +1183,7 @@
   <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2819,7 +2824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -3322,4 +3327,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>